--- a/data/trans_dic/P15D$nada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,32 +725,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 74,91</t>
+          <t>14,71; 75,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 51,98</t>
+          <t>17,45; 52,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,93</t>
+          <t>3,65; 35,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,96; 47,38</t>
+          <t>9,14; 46,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,09</t>
+          <t>0,0; 57,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,43</t>
+          <t>0,0; 27,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 37,28</t>
+          <t>9,62; 35,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,67; 57,23</t>
+          <t>13,04; 55,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,04; 38,53</t>
+          <t>13,18; 38,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 19,26</t>
+          <t>1,88; 19,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 35,77</t>
+          <t>13,07; 36,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,79; 62,18</t>
+          <t>12,55; 60,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 44,87</t>
+          <t>12,25; 45,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,44</t>
+          <t>0,0; 30,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 53,2</t>
+          <t>8,97; 56,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,97</t>
+          <t>0,0; 96,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 46,35</t>
+          <t>8,8; 47,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 41,34</t>
+          <t>4,51; 41,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 29,99</t>
+          <t>5,13; 28,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 63,26</t>
+          <t>16,4; 62,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 40,49</t>
+          <t>16,33; 40,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 27,94</t>
+          <t>2,9; 28,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,89; 38,49</t>
+          <t>11,04; 41,57</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 40,42</t>
+          <t>7,39; 40,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 33,94</t>
+          <t>11,34; 32,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 32,63</t>
+          <t>6,51; 36,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 21,52</t>
+          <t>3,05; 20,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,02</t>
+          <t>0,0; 42,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,18</t>
+          <t>0,0; 63,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 40,56</t>
+          <t>5,04; 41,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,57; 44,69</t>
+          <t>12,53; 43,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,37; 29,36</t>
+          <t>11,49; 30,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 33,68</t>
+          <t>8,09; 34,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 21,82</t>
+          <t>5,03; 21,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 35,24</t>
+          <t>10,64; 36,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,41; 40,59</t>
+          <t>21,67; 39,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 17,74</t>
+          <t>3,33; 18,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 31,45</t>
+          <t>10,57; 30,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,51</t>
+          <t>0,0; 23,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 38,24</t>
+          <t>12,83; 38,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 37,55</t>
+          <t>10,45; 37,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 20,38</t>
+          <t>6,17; 20,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 26,23</t>
+          <t>8,09; 25,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 35,74</t>
+          <t>20,94; 35,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 22,22</t>
+          <t>7,47; 22,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,67; 23,6</t>
+          <t>10,81; 23,8</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,26</t>
+          <t>0,0; 45,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 30,16</t>
+          <t>5,32; 28,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,04; 39,3</t>
+          <t>12,28; 39,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 24,18</t>
+          <t>5,1; 25,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 34,72</t>
+          <t>3,99; 36,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,3; 40,36</t>
+          <t>17,83; 41,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 27,62</t>
+          <t>5,17; 31,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,69; 25,72</t>
+          <t>9,76; 26,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 28,98</t>
+          <t>5,14; 28,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,66; 32,1</t>
+          <t>15,55; 32,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,04; 29,48</t>
+          <t>11,16; 29,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 21,96</t>
+          <t>8,72; 21,23</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,9; 63,33</t>
+          <t>17,73; 65,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 39,78</t>
+          <t>9,39; 38,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 48,55</t>
+          <t>11,35; 46,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,71</t>
+          <t>0,0; 49,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 34,39</t>
+          <t>6,3; 34,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,88; 50,45</t>
+          <t>28,4; 50,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 22,98</t>
+          <t>5,06; 22,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,01; 41,43</t>
+          <t>18,19; 41,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,78; 39,16</t>
+          <t>12,99; 38,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,58; 43,98</t>
+          <t>26,7; 44,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,32; 27,92</t>
+          <t>10,13; 27,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,65; 36,5</t>
+          <t>14,18; 36,34</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,92; 35,36</t>
+          <t>18,28; 34,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,97; 30,39</t>
+          <t>20,5; 30,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 22,43</t>
+          <t>11,06; 22,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,12; 22,4</t>
+          <t>11,62; 22,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,6; 25,71</t>
+          <t>10,23; 24,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,6</t>
+          <t>22,3; 34,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,54; 19,95</t>
+          <t>9,28; 20,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,32; 23,14</t>
+          <t>14,47; 23,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 27,82</t>
+          <t>16,79; 28,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,87; 30,76</t>
+          <t>23,1; 30,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,02</t>
+          <t>11,93; 19,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,13; 21,39</t>
+          <t>14,4; 21,52</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tuvo consecuencias el último accidente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5266</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10984</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5721</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4960</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6247</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11967</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10681</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1853; 9528</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5928; 17773</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>787; 7680</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2177; 11186</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4446</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4680</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1906</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2233; 8302</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2655; 11274</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6762; 19976</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>783; 7910</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6151; 17260</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8590</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6068</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2522</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6779</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3506</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15369</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4772</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9574</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1667; 8074</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3973; 14689</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5139</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2165; 13530</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5411</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2362; 12643</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>997; 9262</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1187; 6645</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3095; 11861</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9681; 23958</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1129; 11130</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5221; 19666</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5569</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11347</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5079</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8370</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13239</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7255</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5361</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2091; 11574</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6420; 18479</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2021; 11330</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1016; 6828</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>799; 4957</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5905</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5601</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>605; 4955</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4166; 14498</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8116; 21423</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3225; 13580</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2283; 9804</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28864</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12942</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1843</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11183</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5750</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10033</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40047</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13229</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18692</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4152; 14227</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20720; 37613</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1963; 10977</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7030; 20427</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5902</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6246; 18641</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4018; 14572</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3053; 9992</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5183; 16446</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30211; 50971</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7278; 21686</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>12538; 27602</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5926</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10009</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2885</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15826</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5657</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8842</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4788</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>21752</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15666</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13251</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5747</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2038; 10927</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5106; 16357</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1956; 9786</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>896; 8144</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10380; 24141</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2088; 12586</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5187; 14045</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1804; 10131</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15009; 31419</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>9149; 24138</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7969; 19415</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6174</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8294</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>34983</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7311</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12894</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10855</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>40583</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15605</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13599</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2870; 10650</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2518; 10448</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3359; 13753</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5762</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1767; 9581</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>25352; 44637</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3056; 13529</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8486; 19382</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5748; 16988</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>30988; 51552</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9118; 25132</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8277; 21212</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31630</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>71311</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>32388</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>32912</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15712</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>71646</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>27103</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>38245</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>47342</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>142957</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>59491</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>71157</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>22308; 42233</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>58173; 87817</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22072; 43968</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22981; 45330</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9594; 23310</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>56707; 86513</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17651; 39101</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>30045; 49800</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36237; 61331</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>124316; 166554</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>46506; 75176</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>58380; 87278</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P15D$nada-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
